--- a/tools/luban/Datas/__enums__.xlsx
+++ b/tools/luban/Datas/__enums__.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C9E217-616B-4244-8DE2-CF1C848AAAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D49D986-AA7A-4E61-A40E-E4CFEF68559F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -246,6 +246,22 @@
   </si>
   <si>
     <t>伙伴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GACHA_MONEY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神恩石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神恩石碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GACHA_MONEY_PART</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -757,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1377,9 +1393,15 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="9">
+        <v>11</v>
+      </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
@@ -1391,9 +1413,15 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="H30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="11">
+        <v>12</v>
+      </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>

--- a/tools/luban/Datas/__enums__.xlsx
+++ b/tools/luban/Datas/__enums__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D49D986-AA7A-4E61-A40E-E4CFEF68559F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF07E08A-7E1A-4C60-8A92-9F98B6B8BF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -262,6 +262,69 @@
   </si>
   <si>
     <t>GACHA_MONEY_PART</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战地牢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战地牢并成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTLE_DUNGEON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTLE_DUNGEON_AND_SUCCESS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GACHA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIMB_TOWER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收装备</t>
+  </si>
+  <si>
+    <t>获得传奇装备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECYCLE_EQUIPMENT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET_GOLD_EQUIPMENT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用血瓶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_HP_POTION</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用蓝瓶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_MP_POTION</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -771,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1024,28 +1087,22 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
@@ -1056,38 +1113,32 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
@@ -1098,32 +1149,32 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9">
-        <v>2</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
@@ -1134,73 +1185,71 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11">
-        <v>3</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9">
-        <v>4</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="11">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9">
+        <v>0</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -1214,33 +1263,35 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I20" s="11"/>
       <c r="J20" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="11">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9">
+        <v>0</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -1254,13 +1305,11 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I22" s="11"/>
       <c r="J22" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -1274,13 +1323,11 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="11">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9">
+        <v>2</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -1294,13 +1341,11 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>56</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I24" s="11"/>
       <c r="J24" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -1314,33 +1359,35 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="11">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9">
+        <v>4</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>58</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I26" s="11"/>
       <c r="J26" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -1354,13 +1401,13 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="9">
-        <v>9</v>
+        <v>51</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -1374,13 +1421,13 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J28" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -1394,13 +1441,13 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" s="9">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="J29" s="11">
+        <v>3</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -1414,13 +1461,13 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J30" s="11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -1433,9 +1480,15 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="11">
+        <v>5</v>
+      </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
@@ -1447,11 +1500,165 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="H32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="11">
+        <v>6</v>
+      </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="11">
+        <v>7</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="11">
+        <v>8</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="9">
+        <v>9</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="11">
+        <v>10</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="9">
+        <v>11</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="11">
+        <v>12</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tools/luban/Datas/__enums__.xlsx
+++ b/tools/luban/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF07E08A-7E1A-4C60-8A92-9F98B6B8BF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162B2B67-CA49-47C9-BC02-8D3740DE7666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1100,7 +1100,9 @@
       <c r="I11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
     </row>
@@ -1118,7 +1120,9 @@
       <c r="I12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11">
+        <v>4</v>
+      </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
@@ -1136,7 +1140,9 @@
       <c r="I13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11">
+        <v>5</v>
+      </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
@@ -1154,7 +1160,9 @@
       <c r="I14" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11">
+        <v>6</v>
+      </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
@@ -1172,7 +1180,9 @@
       <c r="I15" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11">
+        <v>7</v>
+      </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
@@ -1190,7 +1200,9 @@
       <c r="I16" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="11"/>
+      <c r="J16" s="11">
+        <v>8</v>
+      </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
@@ -1208,7 +1220,9 @@
       <c r="I17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="11"/>
+      <c r="J17" s="11">
+        <v>9</v>
+      </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
     </row>
@@ -1226,7 +1240,9 @@
       <c r="I18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="11"/>
+      <c r="J18" s="11">
+        <v>10</v>
+      </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>

--- a/tools/luban/Datas/__enums__.xlsx
+++ b/tools/luban/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162B2B67-CA49-47C9-BC02-8D3740DE7666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F89E10-F3CA-49A0-9552-F3150BDC19F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -325,6 +325,14 @@
   </si>
   <si>
     <t>USE_MP_POTION</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyType.EMoneys</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -836,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1650,15 +1658,27 @@
     </row>
     <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
@@ -1670,9 +1690,15 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
+      <c r="H40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="11">
+        <v>1</v>
+      </c>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
     </row>

--- a/tools/luban/Datas/__enums__.xlsx
+++ b/tools/luban/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F89E10-F3CA-49A0-9552-F3150BDC19F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B5DDA-1AE0-4E4C-873A-7A43E97DA487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -333,6 +333,14 @@
   </si>
   <si>
     <t>MoneyType.EMoneys</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -842,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1702,6 +1710,124 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
     </row>
+    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="11">
+        <v>2</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/tools/luban/Datas/__enums__.xlsx
+++ b/tools/luban/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B5DDA-1AE0-4E4C-873A-7A43E97DA487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981753E9-5933-47FB-9CE6-24FA88CCB2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>##var</t>
   </si>
@@ -328,10 +328,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>COIN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MoneyType.EMoneys</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -341,6 +337,83 @@
   </si>
   <si>
     <t>广告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMORY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验书1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP_BOOK_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP_BOOK_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP_BOOK_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP_BOOK_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验书2</t>
+  </si>
+  <si>
+    <t>经验书3</t>
+  </si>
+  <si>
+    <t>经验书4</t>
+  </si>
+  <si>
+    <t>BOOK_SWORD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑书</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头书</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长枪书</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>匕首书</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOK_AXE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOK_SPEAR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOK_DAGGER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOK_BOW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓书</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -850,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67:L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1665,30 +1738,24 @@
       <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" s="11">
+        <v>13</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
@@ -1698,14 +1765,14 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>65</v>
+      <c r="H40" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="J40" s="11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
@@ -1718,14 +1785,14 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>86</v>
+      <c r="H41" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="J41" s="11">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
@@ -1738,9 +1805,15 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="11"/>
+      <c r="H42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" s="11">
+        <v>16</v>
+      </c>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
     </row>
@@ -1752,9 +1825,15 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="11"/>
+      <c r="H43" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" s="11">
+        <v>17</v>
+      </c>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
     </row>
@@ -1766,9 +1845,15 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="11"/>
+      <c r="H44" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J44" s="11">
+        <v>18</v>
+      </c>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
     </row>
@@ -1780,9 +1865,15 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="11"/>
+      <c r="H45" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J45" s="11">
+        <v>19</v>
+      </c>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
     </row>
@@ -1794,9 +1885,15 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="11"/>
+      <c r="H46" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="11">
+        <v>20</v>
+      </c>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
     </row>
@@ -1808,9 +1905,15 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="11"/>
+      <c r="H47" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J47" s="11">
+        <v>21</v>
+      </c>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
     </row>
@@ -1822,11 +1925,521 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="11"/>
+      <c r="H48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48" s="11">
+        <v>22</v>
+      </c>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="11">
+        <v>23</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51" s="11">
+        <v>1</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="11">
+        <v>2</v>
+      </c>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J53" s="11">
+        <v>3</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" s="11">
+        <v>4</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="11">
+        <v>5</v>
+      </c>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="11">
+        <v>6</v>
+      </c>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="11">
+        <v>7</v>
+      </c>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" s="11">
+        <v>8</v>
+      </c>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J59" s="9">
+        <v>9</v>
+      </c>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J60" s="11">
+        <v>10</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J61" s="9">
+        <v>11</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" s="11">
+        <v>12</v>
+      </c>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" s="11">
+        <v>13</v>
+      </c>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J64" s="11">
+        <v>14</v>
+      </c>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" s="11">
+        <v>15</v>
+      </c>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J66" s="11">
+        <v>16</v>
+      </c>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+    </row>
+    <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J67" s="11">
+        <v>17</v>
+      </c>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J68" s="11">
+        <v>18</v>
+      </c>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J69" s="11">
+        <v>19</v>
+      </c>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J70" s="11">
+        <v>20</v>
+      </c>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J71" s="11">
+        <v>21</v>
+      </c>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J72" s="11">
+        <v>22</v>
+      </c>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J73" s="11">
+        <v>23</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tools/luban/Datas/__enums__.xlsx
+++ b/tools/luban/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981753E9-5933-47FB-9CE6-24FA88CCB2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3EBA32-2C8B-4BAD-875D-51389B2089A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67:L73"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
